--- a/fifo_new.xlsx
+++ b/fifo_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\all_programming\R_files\Financial\fifo_rows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25E369A3-8DB4-4E11-9135-492B7F6F4035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD440C6A-5786-4975-ADE3-9BCDAE6CA204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{7D161A6F-B9EF-41F7-8E39-B9EB81410CD2}"/>
+    <workbookView xWindow="4665" yWindow="885" windowWidth="18165" windowHeight="11355" xr2:uid="{7D161A6F-B9EF-41F7-8E39-B9EB81410CD2}"/>
   </bookViews>
   <sheets>
     <sheet name="fifo_new" sheetId="1" r:id="rId1"/>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E96E65F-CDC3-4A80-8890-82F198562D3B}">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
